--- a/medicine/Pharmacie/Classe_ATC_C09/Classe_ATC_C09.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C09/Classe_ATC_C09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C09, dénommée « Agents agissant sur le système rénine-angiotensine », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC09[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C09, dénommée « Agents agissant sur le système rénine-angiotensine », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC09. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C09AA Inhibiteurs de l'enzyme de conversion de l'angiotensinogène, non associés
-C09AA01 Captopril
+          <t>C09AA Inhibiteurs de l'enzyme de conversion de l'angiotensinogène, non associés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C09AA01 Captopril
 C09AA02 Énalapril
 C09AA03 Lisinopril
 C09AA04 Périndopril
@@ -559,8 +576,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C09BA Inhibiteurs de l'enzyme de conversion de l'angiotensinogène et diurétiques
-C09BA01 Captopril et diurétiques
+          <t>C09BA Inhibiteurs de l'enzyme de conversion de l'angiotensinogène et diurétiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C09BA01 Captopril et diurétiques
 C09BA02 Énalapril et diurétiques
 C09BA03 Lisinopril et diurétiques
 C09BA04 Perindopril et diurétiques
@@ -571,52 +593,125 @@
 C09BA09 Fosinopril et diurétiques
 C09BA12 Delapril et diurétiques
 C09BA13 Moexipril et diurétiques
-C09BA15 Zofénopril et diurétiques
-C09BB Inhibiteurs de l'enzyme de conversion de l'angiotensinogène et inhibiteurs du canal du calcium
-C09BB02 Énalapril et lercanidipine
+C09BA15 Zofénopril et diurétiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C09B Inhibiteurs de l'enzyme de conversion de l'angiotensinogène, associations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C09BB Inhibiteurs de l'enzyme de conversion de l'angiotensinogène et inhibiteurs du canal du calcium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C09BB02 Énalapril et lercanidipine
 C09BB03 Lisinopril et amlodipine
 C09BB04 Perindopril et amlodipine
 C09BB05 Ramipril et félodipine
 C09BB06 Énalapril et nitrendipine
 C09BB07 Ramipril et amlodipine
 C09BB10 Trandolapril et vérapamil
-C09BB12 Délapril et manidipine
-C09BX Inhibiteurs de l'enzyme de conversion de l'angiotensinogène, autres associations
-C09BX01 Périndopril, amlodipine et indapamide
+C09BB12 Délapril et manidipine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C09B Inhibiteurs de l'enzyme de conversion de l'angiotensinogène, associations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C09BX Inhibiteurs de l'enzyme de conversion de l'angiotensinogène, autres associations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C09BX01 Périndopril, amlodipine et indapamide
 C09BX02 Périndopril et Bisoprolol
 C09BX03 Ramipril, amlodipine et hydrochlorothiazide
 QC09BX90 Bénazépril et pimobendane</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C09</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>C09C Antagonistes de l'angiotensine II, non associés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C09CA Antagonistes de l'angiotensine II, non associés
-C09CA01 Losartan
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C09CA Antagonistes de l'angiotensine II, non associés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C09CA01 Losartan
 C09CA02 Éprosartan
 C09CA03 Valsartan
 C09CA04 Irbésartan
@@ -629,34 +724,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C09</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>C09D Antagonistes de l'angiotensine II, associations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>C09DA Antagonistes de l'angiotensine II et diurétiques
-C09DA01 Losartan et diurétiques
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C09DA Antagonistes de l'angiotensine II et diurétiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C09DA01 Losartan et diurétiques
 C09DA02 Éprosartan et diurétiques
 C09DA03 Valsartan et diurétiques
 C09DA04 Irbésartan et diurétiques
@@ -664,51 +764,124 @@
 C09DA07 Telmisartan et diurétiques
 C09DA08 Olmésartan médoxomil et diurétiques
 C09DA09 Azilsartan médoxomil et diurétiques
-C09DA10 Fimasartan et diurétiques
-C09DB Antagonistes de l'angiotensine II et inhibiteurs du canal de calcium
-C09DB01 Valsartan et amlodipine
+C09DA10 Fimasartan et diurétiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C09D Antagonistes de l'angiotensine II, associations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C09DB Antagonistes de l'angiotensine II et inhibiteurs du canal de calcium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C09DB01 Valsartan et amlodipine
 C09DB02 Olmésartan médoxomil et amlodipine
 C09DB04 Telmisartan et amlodipine
 C09DB05 Irbésartan et amlodipine
 C09DB06 Losartan et amlodipine
 C09DB07 Candésartan et amlodipine
-C09DB08 Valsartan et lercanidipine
-C09DX Antagonistes de l'angiotensine II, autres associations
-C09DX01 Valsartan, amlodipine et hydrochlorothiazide
+C09DB08 Valsartan et lercanidipine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C09D Antagonistes de l'angiotensine II, associations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C09DX Antagonistes de l'angiotensine II, autres associations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C09DX01 Valsartan, amlodipine et hydrochlorothiazide
 C09DX02 Valsartan et aliskiren
 C09DX03 Olmésartan médoxomil, amlodipine et hydrochlorothiazide
 C09DX04 Valsartan et sacubitril</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C09</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>C09X Autres agents agissant sur le système rénine-angiotensine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C09XA Inhibiteurs de la rénine
-C09XA01 Remikiren (en)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C09XA Inhibiteurs de la rénine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C09XA01 Remikiren (en)
 C09XA02 Aliskiren
 C09XA52 Aliskiren et hydrochlorothiazide
 C09XA53 Aliskiren et amlodipine (en)
